--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -5859,7 +5859,7 @@
         <v>52</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>53</v>
@@ -10084,7 +10084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>467</v>
       </c>
@@ -10097,10 +10097,10 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T19:30:24+00:00</t>
+    <t>2022-01-17T19:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T19:57:53+00:00</t>
+    <t>2022-01-17T20:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T20:09:00+00:00</t>
+    <t>2022-01-17T22:04:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T22:04:56+00:00</t>
+    <t>2022-01-17T22:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T22:29:32+00:00</t>
+    <t>2022-01-26T09:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MyPatient.xlsx
+++ b/StructureDefinition-MyPatient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3547" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-26T09:51:13+00:00</t>
+    <t>2022-09-22T17:58:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -559,6 +559,10 @@
   </si>
   <si>
     <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2277,46 +2281,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.62109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.56640625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.5703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3993,13 +3997,13 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4050,7 +4054,7 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
@@ -4085,7 +4089,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4114,7 +4118,7 @@
         <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>133</v>
@@ -4167,7 +4171,7 @@
         <v>136</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -4202,7 +4206,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4228,16 +4232,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>75</v>
@@ -4265,10 +4269,10 @@
         <v>152</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>75</v>
@@ -4286,7 +4290,7 @@
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -4304,7 +4308,7 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -4321,7 +4325,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4344,19 +4348,19 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>75</v>
@@ -4381,13 +4385,13 @@
         <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>75</v>
@@ -4405,7 +4409,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -4423,7 +4427,7 @@
         <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -4432,7 +4436,7 @@
         <v>75</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>75</v>
@@ -4440,7 +4444,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4466,16 +4470,16 @@
         <v>98</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
@@ -4488,7 +4492,7 @@
         <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>75</v>
@@ -4524,7 +4528,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -4539,10 +4543,10 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -4551,7 +4555,7 @@
         <v>75</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>75</v>
@@ -4559,7 +4563,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4582,16 +4586,16 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4605,7 +4609,7 @@
         <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>75</v>
@@ -4641,7 +4645,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -4656,10 +4660,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -4668,7 +4672,7 @@
         <v>75</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>75</v>
@@ -4676,7 +4680,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4699,16 +4703,16 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4758,7 +4762,7 @@
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
@@ -4770,13 +4774,13 @@
         <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -4785,7 +4789,7 @@
         <v>75</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>75</v>
@@ -4793,7 +4797,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4816,16 +4820,16 @@
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4875,7 +4879,7 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
@@ -4887,13 +4891,13 @@
         <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -4902,7 +4906,7 @@
         <v>75</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>75</v>
@@ -4913,7 +4917,7 @@
         <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>75</v>
@@ -5052,13 +5056,13 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5109,7 +5113,7 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -5144,7 +5148,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5173,7 +5177,7 @@
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>133</v>
@@ -5226,7 +5230,7 @@
         <v>136</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
@@ -5261,7 +5265,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5287,16 +5291,16 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>75</v>
@@ -5324,10 +5328,10 @@
         <v>152</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>75</v>
@@ -5345,7 +5349,7 @@
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -5363,7 +5367,7 @@
         <v>75</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -5380,7 +5384,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5403,19 +5407,19 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>75</v>
@@ -5440,13 +5444,13 @@
         <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>75</v>
@@ -5464,7 +5468,7 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -5482,7 +5486,7 @@
         <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -5491,7 +5495,7 @@
         <v>75</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>75</v>
@@ -5499,7 +5503,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5525,29 +5529,29 @@
         <v>98</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>75</v>
@@ -5583,7 +5587,7 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
@@ -5598,10 +5602,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -5610,7 +5614,7 @@
         <v>75</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>75</v>
@@ -5618,7 +5622,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5641,16 +5645,16 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5664,7 +5668,7 @@
         <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>75</v>
@@ -5700,7 +5704,7 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
@@ -5715,10 +5719,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -5727,7 +5731,7 @@
         <v>75</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>75</v>
@@ -5735,7 +5739,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5758,16 +5762,16 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5817,7 +5821,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
@@ -5829,13 +5833,13 @@
         <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -5844,7 +5848,7 @@
         <v>75</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>75</v>
@@ -5852,7 +5856,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5875,16 +5879,16 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5934,7 +5938,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5946,13 +5950,13 @@
         <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -5961,7 +5965,7 @@
         <v>75</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>75</v>
@@ -5969,7 +5973,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5992,70 +5996,70 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
@@ -6073,13 +6077,13 @@
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>75</v>
@@ -6090,7 +6094,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6113,19 +6117,19 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>75</v>
@@ -6174,7 +6178,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
@@ -6186,22 +6190,22 @@
         <v>94</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>75</v>
@@ -6209,7 +6213,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6232,13 +6236,13 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6289,7 +6293,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -6324,7 +6328,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6353,7 +6357,7 @@
         <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>133</v>
@@ -6406,7 +6410,7 @@
         <v>136</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -6441,7 +6445,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6467,16 +6471,16 @@
         <v>105</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>75</v>
@@ -6504,10 +6508,10 @@
         <v>152</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>75</v>
@@ -6525,7 +6529,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -6543,7 +6547,7 @@
         <v>75</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -6552,7 +6556,7 @@
         <v>75</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>75</v>
@@ -6560,7 +6564,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6583,19 +6587,19 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>75</v>
@@ -6644,7 +6648,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6662,7 +6666,7 @@
         <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -6671,7 +6675,7 @@
         <v>75</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>75</v>
@@ -6679,11 +6683,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6702,16 +6706,16 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6761,7 +6765,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6770,16 +6774,16 @@
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -6788,7 +6792,7 @@
         <v>75</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>75</v>
@@ -6796,11 +6800,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6819,16 +6823,16 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6878,7 +6882,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -6887,16 +6891,16 @@
         <v>74</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -6905,7 +6909,7 @@
         <v>75</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>75</v>
@@ -6913,7 +6917,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6936,16 +6940,16 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6995,7 +6999,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
@@ -7013,7 +7017,7 @@
         <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -7022,7 +7026,7 @@
         <v>75</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>75</v>
@@ -7030,7 +7034,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7053,16 +7057,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7112,7 +7116,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -7130,7 +7134,7 @@
         <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>75</v>
@@ -7139,7 +7143,7 @@
         <v>75</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>75</v>
@@ -7147,7 +7151,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7170,19 +7174,19 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -7231,7 +7235,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>73</v>
@@ -7243,13 +7247,13 @@
         <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -7258,7 +7262,7 @@
         <v>75</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>75</v>
@@ -7266,7 +7270,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7289,19 +7293,19 @@
         <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>75</v>
@@ -7350,7 +7354,7 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
@@ -7362,22 +7366,22 @@
         <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>75</v>
@@ -7385,7 +7389,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7408,13 +7412,13 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7465,7 +7469,7 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
@@ -7500,7 +7504,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7529,7 +7533,7 @@
         <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>133</v>
@@ -7582,7 +7586,7 @@
         <v>136</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
@@ -7617,7 +7621,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7643,13 +7647,13 @@
         <v>105</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7678,10 +7682,10 @@
         <v>152</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>75</v>
@@ -7699,7 +7703,7 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
@@ -7708,16 +7712,16 @@
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -7726,7 +7730,7 @@
         <v>75</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>75</v>
@@ -7734,7 +7738,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7757,19 +7761,19 @@
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7818,7 +7822,7 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
@@ -7833,10 +7837,10 @@
         <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -7845,7 +7849,7 @@
         <v>75</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>75</v>
@@ -7853,7 +7857,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7879,16 +7883,16 @@
         <v>105</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>75</v>
@@ -7916,10 +7920,10 @@
         <v>152</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>75</v>
@@ -7937,7 +7941,7 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
@@ -7952,10 +7956,10 @@
         <v>95</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7964,7 +7968,7 @@
         <v>75</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>75</v>
@@ -7972,7 +7976,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7995,16 +7999,16 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -8054,7 +8058,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -8089,7 +8093,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8112,16 +8116,16 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8171,7 +8175,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -8183,13 +8187,13 @@
         <v>94</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -8206,7 +8210,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8232,16 +8236,16 @@
         <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>75</v>
@@ -8269,10 +8273,10 @@
         <v>152</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>75</v>
@@ -8290,7 +8294,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
@@ -8305,19 +8309,19 @@
         <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>75</v>
@@ -8325,7 +8329,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8348,19 +8352,19 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -8409,7 +8413,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -8424,27 +8428,27 @@
         <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8467,19 +8471,19 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>75</v>
@@ -8528,7 +8532,7 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -8546,7 +8550,7 @@
         <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>103</v>
@@ -8555,7 +8559,7 @@
         <v>75</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>75</v>
@@ -8563,7 +8567,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8586,19 +8590,19 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -8647,7 +8651,7 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
@@ -8662,19 +8666,19 @@
         <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>75</v>
@@ -8682,7 +8686,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8705,13 +8709,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8762,7 +8766,7 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -8797,7 +8801,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8826,7 +8830,7 @@
         <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>133</v>
@@ -8879,7 +8883,7 @@
         <v>136</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
@@ -8914,7 +8918,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8940,16 +8944,16 @@
         <v>105</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>75</v>
@@ -8962,7 +8966,7 @@
         <v>75</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>75</v>
@@ -8977,10 +8981,10 @@
         <v>152</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>75</v>
@@ -8998,7 +9002,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -9016,7 +9020,7 @@
         <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -9025,7 +9029,7 @@
         <v>75</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>75</v>
@@ -9033,7 +9037,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9059,13 +9063,13 @@
         <v>105</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9079,7 +9083,7 @@
         <v>75</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>75</v>
@@ -9094,10 +9098,10 @@
         <v>152</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>75</v>
@@ -9115,7 +9119,7 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -9133,7 +9137,7 @@
         <v>75</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -9142,7 +9146,7 @@
         <v>75</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>75</v>
@@ -9150,7 +9154,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9173,19 +9177,19 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>75</v>
@@ -9198,7 +9202,7 @@
         <v>75</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>75</v>
@@ -9234,7 +9238,7 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
@@ -9252,7 +9256,7 @@
         <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -9261,7 +9265,7 @@
         <v>75</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>75</v>
@@ -9269,7 +9273,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9292,16 +9296,16 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9315,7 +9319,7 @@
         <v>75</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>75</v>
@@ -9351,7 +9355,7 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
@@ -9366,10 +9370,10 @@
         <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -9378,7 +9382,7 @@
         <v>75</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>75</v>
@@ -9386,11 +9390,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9409,16 +9413,16 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9432,7 +9436,7 @@
         <v>75</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>75</v>
@@ -9468,7 +9472,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
@@ -9483,10 +9487,10 @@
         <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -9495,7 +9499,7 @@
         <v>75</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>75</v>
@@ -9503,11 +9507,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -9526,16 +9530,16 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9549,7 +9553,7 @@
         <v>75</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>75</v>
@@ -9585,7 +9589,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -9603,7 +9607,7 @@
         <v>75</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -9612,7 +9616,7 @@
         <v>75</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>75</v>
@@ -9620,11 +9624,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9643,16 +9647,16 @@
         <v>83</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9678,13 +9682,13 @@
         <v>75</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>75</v>
@@ -9702,7 +9706,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -9717,10 +9721,10 @@
         <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -9729,7 +9733,7 @@
         <v>75</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>75</v>
@@ -9737,11 +9741,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9760,16 +9764,16 @@
         <v>83</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9783,7 +9787,7 @@
         <v>75</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>75</v>
@@ -9819,7 +9823,7 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -9834,10 +9838,10 @@
         <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -9846,7 +9850,7 @@
         <v>75</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>75</v>
@@ -9854,7 +9858,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9877,16 +9881,16 @@
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9936,7 +9940,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -9954,7 +9958,7 @@
         <v>75</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -9963,7 +9967,7 @@
         <v>75</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>75</v>
@@ -9971,7 +9975,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9994,19 +9998,19 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>75</v>
@@ -10019,7 +10023,7 @@
         <v>75</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>75</v>
@@ -10055,7 +10059,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -10067,13 +10071,13 @@
         <v>94</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>75</v>
@@ -10082,7 +10086,7 @@
         <v>75</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>75</v>
@@ -10090,7 +10094,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10113,19 +10117,19 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>75</v>
@@ -10150,13 +10154,13 @@
         <v>75</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>75</v>
@@ -10174,7 +10178,7 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -10192,16 +10196,16 @@
         <v>75</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>75</v>
@@ -10209,7 +10213,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10232,19 +10236,19 @@
         <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -10293,7 +10297,7 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
@@ -10311,7 +10315,7 @@
         <v>75</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>103</v>
@@ -10320,7 +10324,7 @@
         <v>75</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>75</v>
@@ -10328,7 +10332,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10351,19 +10355,19 @@
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -10412,7 +10416,7 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
@@ -10424,13 +10428,13 @@
         <v>94</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>103</v>
@@ -10439,7 +10443,7 @@
         <v>75</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>75</v>
@@ -10447,7 +10451,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10470,19 +10474,19 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>75</v>
@@ -10531,7 +10535,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
@@ -10543,13 +10547,13 @@
         <v>94</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>103</v>
@@ -10566,7 +10570,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10589,13 +10593,13 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10646,7 +10650,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -10681,7 +10685,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10710,7 +10714,7 @@
         <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>133</v>
@@ -10763,7 +10767,7 @@
         <v>136</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
@@ -10798,11 +10802,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10824,10 +10828,10 @@
         <v>130</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>133</v>
@@ -10882,7 +10886,7 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -10917,7 +10921,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10940,19 +10944,19 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>75</v>
@@ -10977,13 +10981,13 @@
         <v>75</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>75</v>
@@ -11001,7 +11005,7 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -11019,7 +11023,7 @@
         <v>75</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>103</v>
@@ -11028,7 +11032,7 @@
         <v>75</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>75</v>
@@ -11036,7 +11040,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11059,19 +11063,19 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -11120,7 +11124,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -11138,7 +11142,7 @@
         <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>103</v>
@@ -11147,7 +11151,7 @@
         <v>75</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>75</v>
@@ -11155,7 +11159,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11178,19 +11182,19 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>75</v>
@@ -11239,7 +11243,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -11251,13 +11255,13 @@
         <v>94</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>103</v>
@@ -11266,7 +11270,7 @@
         <v>75</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>75</v>
@@ -11274,7 +11278,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11297,19 +11301,19 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>75</v>
@@ -11358,7 +11362,7 @@
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
@@ -11376,7 +11380,7 @@
         <v>75</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>103</v>
@@ -11385,7 +11389,7 @@
         <v>75</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>75</v>
@@ -11393,7 +11397,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11419,16 +11423,16 @@
         <v>105</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>75</v>
@@ -11456,10 +11460,10 @@
         <v>152</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>75</v>
@@ -11477,7 +11481,7 @@
         <v>75</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
@@ -11504,7 +11508,7 @@
         <v>75</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>75</v>
@@ -11512,7 +11516,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11535,19 +11539,19 @@
         <v>75</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>75</v>
@@ -11596,7 +11600,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -11605,16 +11609,16 @@
         <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>103</v>
@@ -11623,7 +11627,7 @@
         <v>75</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>75</v>
@@ -11631,7 +11635,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11654,16 +11658,16 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11713,7 +11717,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -11725,13 +11729,13 @@
         <v>94</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>103</v>
@@ -11740,7 +11744,7 @@
         <v>75</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>75</v>
@@ -11748,7 +11752,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11771,19 +11775,19 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -11832,7 +11836,7 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -11847,13 +11851,13 @@
         <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>75</v>
@@ -11867,7 +11871,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11890,13 +11894,13 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11947,7 +11951,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -11982,7 +11986,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12011,7 +12015,7 @@
         <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>133</v>
@@ -12064,7 +12068,7 @@
         <v>136</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -12099,11 +12103,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -12125,10 +12129,10 @@
         <v>130</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>133</v>
@@ -12183,7 +12187,7 @@
         <v>75</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
@@ -12218,7 +12222,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12241,19 +12245,19 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>75</v>
@@ -12278,13 +12282,13 @@
         <v>75</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>110</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>75</v>
@@ -12302,7 +12306,7 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>82</v>
@@ -12317,19 +12321,19 @@
         <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>75</v>
@@ -12337,7 +12341,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12360,19 +12364,19 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>75</v>
@@ -12421,7 +12425,7 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -12439,16 +12443,16 @@
         <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>75</v>
@@ -12456,11 +12460,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -12479,16 +12483,16 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12538,7 +12542,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -12550,13 +12554,13 @@
         <v>94</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>103</v>
@@ -12565,7 +12569,7 @@
         <v>75</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>75</v>
@@ -12573,7 +12577,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12596,19 +12600,19 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>75</v>
@@ -12657,7 +12661,7 @@
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -12669,16 +12673,16 @@
         <v>94</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -12692,7 +12696,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12715,19 +12719,19 @@
         <v>83</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>75</v>
@@ -12776,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -12794,7 +12798,7 @@
         <v>75</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>103</v>
@@ -12811,7 +12815,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12834,13 +12838,13 @@
         <v>75</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12891,7 +12895,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -12926,7 +12930,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12955,7 +12959,7 @@
         <v>131</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>133</v>
@@ -13008,7 +13012,7 @@
         <v>136</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
@@ -13043,11 +13047,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -13069,10 +13073,10 @@
         <v>130</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>133</v>
@@ -13127,7 +13131,7 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -13162,7 +13166,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13185,16 +13189,16 @@
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13244,7 +13248,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>82</v>
@@ -13256,7 +13260,7 @@
         <v>94</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>75</v>
@@ -13271,7 +13275,7 @@
         <v>75</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>75</v>
@@ -13279,7 +13283,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13305,13 +13309,13 @@
         <v>105</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13340,10 +13344,10 @@
         <v>152</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>75</v>
@@ -13361,7 +13365,7 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>82</v>
@@ -13379,7 +13383,7 @@
         <v>75</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>103</v>
